--- a/ComcastCRMGUIFramework1/testdata/testScriptdata.xlsx
+++ b/ComcastCRMGUIFramework1/testdata/testScriptdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gagan\eclipse-workspace\ComcastCRMGUIFramework1\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gagan\git\AutomationTL\ComcastCRMGUIFramework1\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF9AC93-10D6-42FB-A0C1-859118BBBDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDF0F25-845F-4C28-9A7F-6734C1470060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>TC_ID</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Apple iPhone 13 (128GB) - Green</t>
+  </si>
+  <si>
+    <t>organizationIn</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
   </si>
 </sst>
 </file>
@@ -525,15 +531,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -638,7 +644,9 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,7 +659,9 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -768,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BEC132-D99B-46B5-BFDF-422884897824}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
